--- a/题目整理.xlsx
+++ b/题目整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B98E6C-5D31-415F-9A6F-67D1F8F66B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F83B2D-2C1A-45CA-8817-CA55FC813A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
   </bookViews>
   <sheets>
     <sheet name="DFSBFS类" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
   <si>
     <t>DFS &amp; BFS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>http://joshuablog.herokuapp.com/Trie-%E7%B1%BB%E5%9E%8B%E6%80%BB%E7%BB%93.html</t>
+  </si>
+  <si>
+    <t>http://chen-tao.github.io/categories/%E7%AE%97%E6%B3%95/</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1034,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1351,6 +1354,9 @@
     <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1382,7 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/题目整理.xlsx
+++ b/题目整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F83B2D-2C1A-45CA-8817-CA55FC813A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A78778E-1602-491C-A0F1-0824E805A821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
   </bookViews>
   <sheets>
     <sheet name="DFSBFS类" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
   <si>
     <t>DFS &amp; BFS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -569,13 +569,21 @@
   </si>
   <si>
     <t>http://chen-tao.github.io/categories/%E7%AE%97%E6%B3%95/</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +645,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -678,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,9 +725,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,6 +732,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,7 +1061,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1111,7 +1138,9 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="8">
         <v>133</v>
@@ -1147,7 +1176,9 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="8">
         <v>399</v>
@@ -1183,7 +1214,7 @@
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="5"/>
@@ -1224,14 +1255,16 @@
       <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1243,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>163</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1254,7 +1287,7 @@
       <c r="M8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1288,6 +1321,12 @@
       </c>
       <c r="C10" s="8" t="s">
         <v>35</v>
+      </c>
+      <c r="E10" s="7">
+        <v>444</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="I10" s="8">
         <v>149</v>
@@ -1506,7 +1545,7 @@
       <c r="E9" s="7">
         <v>99</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1598,12 +1637,12 @@
       <c r="A20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1901,17 +1940,17 @@
       <c r="A31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1945,12 +1984,12 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -1959,7 +1998,7 @@
       <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1967,7 +2006,7 @@
       <c r="B6" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1975,7 +2014,7 @@
       <c r="B7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1983,7 +2022,7 @@
       <c r="B8" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2014,17 +2053,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2469,7 +2508,7 @@
       <c r="A48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2493,7 +2532,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2522,7 +2561,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>159</v>
       </c>
     </row>

--- a/题目整理.xlsx
+++ b/题目整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A78778E-1602-491C-A0F1-0824E805A821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C84B5-46A1-4B6C-8BEA-80CE24135798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
   <si>
     <t>DFS &amp; BFS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>去年的题目(类似323)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Reverse Integer</t>
   </si>
   <si>
@@ -576,6 +572,51 @@
   </si>
   <si>
     <t>Sequence Reconstruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太复杂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无向图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数层数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无向图的最长距离</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本不考</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,14 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -657,6 +690,26 @@
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -699,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,16 +784,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1123,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1138,8 +1200,8 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>167</v>
+      <c r="G4" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="8">
@@ -1148,7 +1210,9 @@
       <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="M4" s="8">
         <v>261</v>
       </c>
@@ -1176,8 +1240,8 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>167</v>
+      <c r="G5" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="8">
@@ -1186,7 +1250,9 @@
       <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="M5" s="4">
         <v>323</v>
       </c>
@@ -1255,17 +1321,17 @@
       <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>167</v>
+      <c r="G7" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1276,20 +1342,20 @@
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="10" t="s">
-        <v>163</v>
+      <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="8">
@@ -1299,8 +1365,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>94</v>
+      <c r="E9" s="7">
+        <v>444</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>166</v>
       </c>
       <c r="I9" s="4">
         <v>335</v>
@@ -1322,11 +1394,8 @@
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7">
-        <v>444</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>168</v>
+      <c r="E10" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="I10" s="8">
         <v>149</v>
@@ -1375,10 +1444,13 @@
       <c r="K12" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="M12" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="4">
         <v>223</v>
@@ -1388,6 +1460,12 @@
       </c>
       <c r="K13" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1395,17 +1473,27 @@
         <v>94</v>
       </c>
       <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{1B5852B4-5128-486A-8403-D5E4297F8788}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{1B5852B4-5128-486A-8403-D5E4297F8788}"/>
     <hyperlink ref="M7" r:id="rId2" xr:uid="{8BFBC2DC-595B-41A6-8786-1492F3D8F1F7}"/>
     <hyperlink ref="Q7" r:id="rId3" xr:uid="{68267AF1-8C8F-4BFF-A5B6-92E72D849E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1951,7 +2039,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1977,15 +2065,15 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1993,37 +2081,37 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2054,17 +2142,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2192,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -2113,7 +2201,7 @@
         <v>165</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2122,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2131,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -2140,7 +2228,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -2149,7 +2237,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -2158,7 +2246,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -2167,7 +2255,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -2176,7 +2264,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -2185,7 +2273,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -2194,10 +2282,10 @@
         <v>367</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2205,10 +2293,10 @@
         <v>365</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2216,7 +2304,7 @@
         <v>397</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -2225,7 +2313,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -2234,7 +2322,7 @@
         <v>166</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>35</v>
@@ -2245,10 +2333,10 @@
         <v>368</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2258,7 +2346,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2268,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -2277,7 +2365,7 @@
         <v>167</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2286,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8"/>
     </row>
@@ -2295,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -2306,7 +2394,7 @@
         <v>259</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
@@ -2317,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -2338,7 +2426,7 @@
         <v>231</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4"/>
     </row>
@@ -2347,7 +2435,7 @@
         <v>326</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4"/>
     </row>
@@ -2356,7 +2444,7 @@
         <v>342</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4"/>
     </row>
@@ -2365,7 +2453,7 @@
         <v>372</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4"/>
     </row>
@@ -2374,7 +2462,7 @@
         <v>233</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="4"/>
     </row>
@@ -2383,7 +2471,7 @@
         <v>319</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4"/>
     </row>
@@ -2392,7 +2480,7 @@
         <v>292</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4"/>
     </row>
@@ -2401,7 +2489,7 @@
         <v>202</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -2410,7 +2498,7 @@
         <v>400</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -2419,7 +2507,7 @@
         <v>263</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="4"/>
     </row>
@@ -2428,7 +2516,7 @@
         <v>264</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="4"/>
     </row>
@@ -2437,7 +2525,7 @@
         <v>306</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -2446,7 +2534,7 @@
         <v>172</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -2455,7 +2543,7 @@
         <v>343</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4"/>
     </row>
@@ -2464,7 +2552,7 @@
         <v>396</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4"/>
     </row>
@@ -2473,7 +2561,7 @@
         <v>390</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4"/>
     </row>
@@ -2482,7 +2570,7 @@
         <v>386</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -2491,7 +2579,7 @@
         <v>357</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4"/>
     </row>
@@ -2500,16 +2588,16 @@
         <v>360</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2533,12 +2621,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2650,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2677,7 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/题目整理.xlsx
+++ b/题目整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C84B5-46A1-4B6C-8BEA-80CE24135798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F23BC-FF41-41CC-9319-CE6F10567022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
+    <workbookView xWindow="4305" yWindow="225" windowWidth="14925" windowHeight="11835" xr2:uid="{46F2827C-EAD0-4796-82DE-D285996950C4}"/>
   </bookViews>
   <sheets>
     <sheet name="DFSBFS类" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="174">
   <si>
     <t>DFS &amp; BFS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -552,9 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://joshuablog.herokuapp.com/DFS-BFS-%E6%80%BB%E7%BB%93.html</t>
-  </si>
-  <si>
     <t>http://joshuablog.herokuapp.com/TopLogicalSort-%E6%80%BB%E7%BB%93.html</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
   </si>
   <si>
     <t>http://joshuablog.herokuapp.com/Trie-%E7%B1%BB%E5%9E%8B%E6%80%BB%E7%BB%93.html</t>
-  </si>
-  <si>
-    <t>http://chen-tao.github.io/categories/%E7%AE%97%E6%B3%95/</t>
   </si>
   <si>
     <t>完成</t>
@@ -617,6 +611,27 @@
       </rPr>
       <t>基本不考</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://joshuablog.herokuapp.com/DFS-BFS-%E6%80%BB%E7%BB%93.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chen-tao.github.io/categories/%E7%AE%97%E6%B3%95/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +735,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -743,6 +758,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -752,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +830,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1155,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1201,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="8">
@@ -1211,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M4" s="8">
         <v>261</v>
@@ -1219,6 +1251,9 @@
       <c r="N4" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="O4" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="Q4" s="4">
         <v>211</v>
       </c>
@@ -1226,7 +1261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="25.5">
       <c r="A5" s="8">
         <v>286</v>
       </c>
@@ -1241,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="8">
@@ -1251,13 +1286,16 @@
         <v>17</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M5" s="4">
         <v>323</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="19" t="s">
         <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>164</v>
       </c>
       <c r="Q5" s="8">
         <v>208</v>
@@ -1322,16 +1360,16 @@
         <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1346,10 +1384,10 @@
         <v>94</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>19</v>
@@ -1369,10 +1407,10 @@
         <v>444</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I9" s="4">
         <v>335</v>
@@ -1395,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="8">
         <v>149</v>
@@ -1445,12 +1483,12 @@
         <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>161</v>
+      <c r="A13" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="I13" s="4">
         <v>223</v>
@@ -1465,24 +1503,24 @@
         <v>93</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
-        <v>165</v>
+      <c r="B14" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1491,9 +1529,11 @@
     <hyperlink ref="E10" r:id="rId1" xr:uid="{1B5852B4-5128-486A-8403-D5E4297F8788}"/>
     <hyperlink ref="M7" r:id="rId2" xr:uid="{8BFBC2DC-595B-41A6-8786-1492F3D8F1F7}"/>
     <hyperlink ref="Q7" r:id="rId3" xr:uid="{68267AF1-8C8F-4BFF-A5B6-92E72D849E81}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{6AD480B6-C372-4C91-A6BA-9983DCDB017D}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{092569FE-CDBE-4D1B-85C0-CA5C4255D300}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
